--- a/data_/overall.xlsx
+++ b/data_/overall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\poultryshed_analysis\data_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4821EEF-424C-426C-8645-5869238A57AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F98B0-2DD3-4C77-9DF2-BCE88509C72A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{A0A5D637-B45C-411A-8BEA-262D6F377A5A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>Parameter/Age in period</t>
   </si>
@@ -261,6 +261,18 @@
   <si>
     <t>T4R3</t>
   </si>
+  <si>
+    <t>Controlled</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>R1(CTRL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcentage Increase </t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +312,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -411,11 +429,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -433,6 +502,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,104 +540,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1219,7 +1244,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Weight</a:t>
+              <a:t>Weight Data</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1280,7 +1305,7 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>R1</c:v>
+                    <c:v>R1(CTRL)</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>R2</c:v>
@@ -1289,7 +1314,7 @@
                     <c:v>R3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>R1</c:v>
+                    <c:v>R1(CTRL)</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>R2</c:v>
@@ -1556,6 +1581,400 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Verses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.54893044619422571"/>
+          <c:y val="4.6296296296296294E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Controlled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$21:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2123.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2184.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15D1-471F-A840-C20F57930B9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traditional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2026.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2034.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2040.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2076.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2113.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15D1-471F-A840-C20F57930B9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="656593696"/>
+        <c:axId val="668590768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="656593696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668590768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668590768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656593696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1676,6 +2095,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2683,6 +3142,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3266,16 +4228,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>340809</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>131259</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209144</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>189782</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>599669</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56432</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3295,6 +4257,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E103EB6F-6B40-4140-A8DC-A9FE7B049F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3617,48 +4615,48 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="3:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="10" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3864,18 +4862,18 @@
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
@@ -4000,22 +4998,22 @@
         <v>708.4</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
@@ -4144,18 +5142,18 @@
       <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
@@ -4300,16 +5298,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9AB68A-40A8-4EA8-A170-02C764200E08}">
-  <dimension ref="B2:AA99"/>
+  <dimension ref="B2:AE106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P27" sqref="P22:P27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.140625" bestFit="1" customWidth="1"/>
@@ -4326,50 +5324,50 @@
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="2:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="10" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25"/>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -4378,7 +5376,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -4573,40 +5571,40 @@
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="7">
         <v>2208</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="7">
         <v>2113.5</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="7">
         <v>2040.2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="7">
         <v>2300</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="7">
         <v>2184.6999999999998</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="7">
         <v>2123.5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="7">
         <v>2237</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="7">
         <v>2076.1999999999998</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="7">
         <v>2034.7</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="7">
         <v>2097</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="7">
         <v>2026.1</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="7">
         <v>2179</v>
       </c>
     </row>
@@ -4651,127 +5649,133 @@
         <v>2138.8000000000002</v>
       </c>
     </row>
-    <row r="20" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-    </row>
-    <row r="22" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P22" s="25">
+    <row r="19" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="30">
+        <v>2123.5</v>
+      </c>
+      <c r="C21" s="31">
         <v>2026.1</v>
       </c>
     </row>
-    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P23" s="25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="30">
+        <v>2179</v>
+      </c>
+      <c r="C22" s="31">
         <v>2034.7</v>
       </c>
     </row>
-    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P24" s="25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="30">
+        <v>2184.6999999999998</v>
+      </c>
+      <c r="C23" s="31">
         <v>2040.2</v>
       </c>
     </row>
-    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P25" s="25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="30">
+        <v>2208</v>
+      </c>
+      <c r="C24" s="31">
         <v>2076.1999999999998</v>
       </c>
     </row>
-    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P26" s="25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25" s="30">
+        <v>2237</v>
+      </c>
+      <c r="C25" s="31">
         <v>2097</v>
       </c>
     </row>
-    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P27" s="25">
+    <row r="26" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="32">
+        <v>2300</v>
+      </c>
+      <c r="C26" s="7">
         <v>2113.5</v>
       </c>
     </row>
-    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P28" s="25">
-        <v>2123.5</v>
-      </c>
-    </row>
-    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P29" s="25">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P30" s="25">
-        <v>2184.6999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P31" s="25">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="32" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P32" s="25">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P33" s="25">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="33">
+        <f>((SUM(B21:B26)-SUM(C21:C26))/SUM(B21:B26))*100</f>
+        <v>6.3821586735387914</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="10" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="10" t="s">
+      <c r="J37" s="15"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
@@ -4809,7 +5813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
@@ -4850,7 +5854,7 @@
         <v>303.8</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +5895,7 @@
         <v>754.7</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>12</v>
       </c>
@@ -4932,7 +5936,7 @@
         <v>1470.6</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
@@ -4973,24 +5977,24 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>15</v>
       </c>
@@ -5031,7 +6035,7 @@
         <v>450.9</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>12</v>
       </c>
@@ -5072,7 +6076,7 @@
         <v>715.9</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>13</v>
       </c>
@@ -5113,24 +6117,24 @@
         <v>708.4</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>15</v>
       </c>
@@ -5257,20 +6261,20 @@
       <c r="B51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="2:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>18</v>
       </c>
@@ -5311,7 +6315,7 @@
         <v>1875.2</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>19</v>
       </c>
@@ -5352,22 +6356,22 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="9"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="13"/>
     </row>
     <row r="55" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
@@ -5408,12 +6412,12 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="20" t="s">
+    <row r="84" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="22"/>
@@ -5425,540 +6429,860 @@
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
-      <c r="M85" s="24"/>
-    </row>
-    <row r="86" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="21"/>
-      <c r="C86" s="18" t="s">
+      <c r="M85" s="23"/>
+    </row>
+    <row r="86" spans="2:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="20"/>
+      <c r="C86" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F86" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H86" s="18" t="s">
+      <c r="H86" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I86" s="18" t="s">
+      <c r="I86" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J86" s="18" t="s">
+      <c r="J86" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K86" s="18" t="s">
+      <c r="K86" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="L86" s="18" t="s">
+      <c r="L86" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M86" s="18" t="s">
+      <c r="M86" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="19" t="s">
+    <row r="87" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="8">
         <v>1896</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="8">
         <v>1367</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="8">
         <v>512</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="8">
         <v>89</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="8">
         <v>146</v>
       </c>
-      <c r="H87" s="18">
+      <c r="H87" s="8">
         <v>156</v>
       </c>
-      <c r="I87" s="18">
+      <c r="I87" s="8">
         <v>44</v>
       </c>
-      <c r="J87" s="18">
+      <c r="J87" s="8">
         <v>55</v>
       </c>
-      <c r="K87" s="18">
+      <c r="K87" s="8">
         <v>9</v>
       </c>
-      <c r="L87" s="18">
+      <c r="L87" s="8">
         <v>42</v>
       </c>
-      <c r="M87" s="18">
+      <c r="M87" s="8">
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="19" t="s">
+    <row r="88" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="8">
         <v>1889</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="8">
         <v>1362</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="8">
         <v>571</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="8">
         <v>99</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="8">
         <v>138</v>
       </c>
-      <c r="H88" s="18">
+      <c r="H88" s="8">
         <v>169</v>
       </c>
-      <c r="I88" s="18">
+      <c r="I88" s="8">
         <v>46</v>
       </c>
-      <c r="J88" s="18">
+      <c r="J88" s="8">
         <v>55</v>
       </c>
-      <c r="K88" s="18">
+      <c r="K88" s="8">
         <v>11</v>
       </c>
-      <c r="L88" s="18">
+      <c r="L88" s="8">
         <v>42</v>
       </c>
-      <c r="M88" s="18">
+      <c r="M88" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="19" t="s">
+    <row r="89" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="8">
         <v>1892</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="8">
         <v>1336</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="8">
         <v>510</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="8">
         <v>117</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="8">
         <v>196</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H89" s="8">
         <v>136</v>
       </c>
-      <c r="I89" s="18">
+      <c r="I89" s="8">
         <v>42</v>
       </c>
-      <c r="J89" s="18">
+      <c r="J89" s="8">
         <v>56</v>
       </c>
-      <c r="K89" s="18">
+      <c r="K89" s="8">
         <v>9</v>
       </c>
-      <c r="L89" s="18">
+      <c r="L89" s="8">
         <v>37</v>
       </c>
-      <c r="M89" s="18">
+      <c r="M89" s="8">
         <v>39</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="19" t="s">
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="26"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="26"/>
+      <c r="X89" s="26"/>
+      <c r="Y89" s="26"/>
+      <c r="Z89" s="26"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+    </row>
+    <row r="90" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="8">
         <v>1931</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="8">
         <v>1403</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="8">
         <v>531</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="8">
         <v>106</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="8">
         <v>206</v>
       </c>
-      <c r="H90" s="18">
+      <c r="H90" s="8">
         <v>156</v>
       </c>
-      <c r="I90" s="18">
+      <c r="I90" s="8">
         <v>43</v>
       </c>
-      <c r="J90" s="18">
+      <c r="J90" s="8">
         <v>57</v>
       </c>
-      <c r="K90" s="18">
+      <c r="K90" s="8">
         <v>9</v>
       </c>
-      <c r="L90" s="18">
+      <c r="L90" s="8">
         <v>40</v>
       </c>
-      <c r="M90" s="18">
+      <c r="M90" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="91" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="19" t="s">
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
+      <c r="U90" s="27"/>
+      <c r="V90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
+    </row>
+    <row r="91" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="8">
         <v>1977</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="8">
         <v>1466</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="8">
         <v>507</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="8">
         <v>103</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="8">
         <v>204</v>
       </c>
-      <c r="H91" s="18">
+      <c r="H91" s="8">
         <v>178</v>
       </c>
-      <c r="I91" s="18">
+      <c r="I91" s="8">
         <v>43</v>
       </c>
-      <c r="J91" s="18">
+      <c r="J91" s="8">
         <v>60</v>
       </c>
-      <c r="K91" s="18">
+      <c r="K91" s="8">
         <v>11</v>
       </c>
-      <c r="L91" s="18">
+      <c r="L91" s="8">
         <v>48</v>
       </c>
-      <c r="M91" s="18">
+      <c r="M91" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="19" t="s">
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="27"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
+    </row>
+    <row r="92" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="8">
         <v>1906</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="8">
         <v>1410</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="8">
         <v>534</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="8">
         <v>114</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="8">
         <v>174</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="8">
         <v>147</v>
       </c>
-      <c r="I92" s="18">
+      <c r="I92" s="8">
         <v>40</v>
       </c>
-      <c r="J92" s="18">
+      <c r="J92" s="8">
         <v>59</v>
       </c>
-      <c r="K92" s="18">
+      <c r="K92" s="8">
         <v>8</v>
       </c>
-      <c r="L92" s="18">
+      <c r="L92" s="8">
         <v>38</v>
       </c>
-      <c r="M92" s="18">
+      <c r="M92" s="8">
         <v>44</v>
       </c>
-    </row>
-    <row r="93" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="19" t="s">
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="26"/>
+      <c r="AE92" s="26"/>
+    </row>
+    <row r="93" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="8">
         <v>1887</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="8">
         <v>1359</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="8">
         <v>558</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="8">
         <v>94</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="8">
         <v>151</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93" s="8">
         <v>146</v>
       </c>
-      <c r="I93" s="18">
+      <c r="I93" s="8">
         <v>48</v>
       </c>
-      <c r="J93" s="18">
+      <c r="J93" s="8">
         <v>53</v>
       </c>
-      <c r="K93" s="18">
+      <c r="K93" s="8">
         <v>10</v>
       </c>
-      <c r="L93" s="18">
+      <c r="L93" s="8">
         <v>38</v>
       </c>
-      <c r="M93" s="18">
+      <c r="M93" s="8">
         <v>37</v>
       </c>
-    </row>
-    <row r="94" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="19" t="s">
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="27"/>
+    </row>
+    <row r="94" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="8">
         <v>1897</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="8">
         <v>1365</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="8">
         <v>504</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="8">
         <v>96</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="8">
         <v>209</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H94" s="8">
         <v>163</v>
       </c>
-      <c r="I94" s="18">
+      <c r="I94" s="8">
         <v>42</v>
       </c>
-      <c r="J94" s="18">
+      <c r="J94" s="8">
         <v>54</v>
       </c>
-      <c r="K94" s="18">
+      <c r="K94" s="8">
         <v>9</v>
       </c>
-      <c r="L94" s="18">
+      <c r="L94" s="8">
         <v>46</v>
       </c>
-      <c r="M94" s="18">
+      <c r="M94" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="95" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="19" t="s">
+      <c r="O94" s="26"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="27"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="27"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="27"/>
+    </row>
+    <row r="95" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="8">
         <v>1993</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="8">
         <v>1542</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="8">
         <v>588</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="8">
         <v>104</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="8">
         <v>214</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95" s="8">
         <v>180</v>
       </c>
-      <c r="I95" s="18">
+      <c r="I95" s="8">
         <v>44</v>
       </c>
-      <c r="J95" s="18">
+      <c r="J95" s="8">
         <v>69</v>
       </c>
-      <c r="K95" s="18">
+      <c r="K95" s="8">
         <v>11</v>
       </c>
-      <c r="L95" s="18">
+      <c r="L95" s="8">
         <v>43</v>
       </c>
-      <c r="M95" s="18">
+      <c r="M95" s="8">
         <v>45</v>
       </c>
-    </row>
-    <row r="96" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="19" t="s">
+      <c r="O95" s="26"/>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="27"/>
+      <c r="S95" s="27"/>
+      <c r="T95" s="27"/>
+      <c r="U95" s="27"/>
+      <c r="V95" s="27"/>
+      <c r="W95" s="27"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="27"/>
+      <c r="AC95" s="27"/>
+      <c r="AD95" s="27"/>
+      <c r="AE95" s="27"/>
+    </row>
+    <row r="96" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="8">
         <v>2044</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="8">
         <v>1559</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="8">
         <v>548</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="8">
         <v>106</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="8">
         <v>216</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96" s="8">
         <v>178</v>
       </c>
-      <c r="I96" s="18">
+      <c r="I96" s="8">
         <v>51</v>
       </c>
-      <c r="J96" s="18">
+      <c r="J96" s="8">
         <v>73</v>
       </c>
-      <c r="K96" s="18">
+      <c r="K96" s="8">
         <v>10</v>
       </c>
-      <c r="L96" s="18">
+      <c r="L96" s="8">
         <v>43</v>
       </c>
-      <c r="M96" s="18">
+      <c r="M96" s="8">
         <v>42</v>
       </c>
-    </row>
-    <row r="97" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="19" t="s">
+      <c r="O96" s="26"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
+    </row>
+    <row r="97" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C97" s="8">
         <v>1974</v>
       </c>
-      <c r="D97" s="18">
+      <c r="D97" s="8">
         <v>1477</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="8">
         <v>559</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="8">
         <v>82</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="8">
         <v>237</v>
       </c>
-      <c r="H97" s="18">
+      <c r="H97" s="8">
         <v>174</v>
       </c>
-      <c r="I97" s="18">
+      <c r="I97" s="8">
         <v>47</v>
       </c>
-      <c r="J97" s="18">
+      <c r="J97" s="8">
         <v>59</v>
       </c>
-      <c r="K97" s="18">
+      <c r="K97" s="8">
         <v>10</v>
       </c>
-      <c r="L97" s="18">
+      <c r="L97" s="8">
         <v>43</v>
       </c>
-      <c r="M97" s="18">
+      <c r="M97" s="8">
         <v>39</v>
       </c>
-    </row>
-    <row r="98" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="19" t="s">
+      <c r="O97" s="26"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27"/>
+      <c r="T97" s="27"/>
+      <c r="U97" s="27"/>
+      <c r="V97" s="27"/>
+      <c r="W97" s="27"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27"/>
+      <c r="AC97" s="27"/>
+      <c r="AD97" s="27"/>
+      <c r="AE97" s="27"/>
+    </row>
+    <row r="98" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="8">
         <v>2081</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="8">
         <v>1590</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="8">
         <v>556</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="8">
         <v>109</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="8">
         <v>214</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="8">
         <v>165</v>
       </c>
-      <c r="I98" s="18">
+      <c r="I98" s="8">
         <v>51</v>
       </c>
-      <c r="J98" s="18">
+      <c r="J98" s="8">
         <v>81</v>
       </c>
-      <c r="K98" s="18">
+      <c r="K98" s="8">
         <v>10</v>
       </c>
-      <c r="L98" s="18">
+      <c r="L98" s="8">
         <v>42</v>
       </c>
-      <c r="M98" s="18">
+      <c r="M98" s="8">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="19"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="27"/>
+      <c r="S98" s="27"/>
+      <c r="T98" s="27"/>
+      <c r="U98" s="27"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="27"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27"/>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27"/>
+      <c r="AE98" s="27"/>
+    </row>
+    <row r="99" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="9"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="O99" s="26"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27"/>
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="27"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27"/>
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="27"/>
+    </row>
+    <row r="100" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="O100" s="26"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27"/>
+      <c r="T100" s="27"/>
+      <c r="U100" s="27"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="27"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="27"/>
+      <c r="AC100" s="27"/>
+      <c r="AD100" s="27"/>
+      <c r="AE100" s="27"/>
+    </row>
+    <row r="101" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="O101" s="26"/>
+      <c r="P101" s="27"/>
+      <c r="Q101" s="27"/>
+      <c r="R101" s="27"/>
+      <c r="S101" s="27"/>
+      <c r="T101" s="27"/>
+      <c r="U101" s="27"/>
+      <c r="V101" s="27"/>
+      <c r="W101" s="27"/>
+      <c r="X101" s="27"/>
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="27"/>
+      <c r="AA101" s="27"/>
+      <c r="AB101" s="27"/>
+      <c r="AC101" s="27"/>
+      <c r="AD101" s="27"/>
+      <c r="AE101" s="27"/>
+    </row>
+    <row r="102" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="O102" s="26"/>
+      <c r="P102" s="27"/>
+      <c r="Q102" s="27"/>
+      <c r="R102" s="27"/>
+      <c r="S102" s="27"/>
+      <c r="T102" s="27"/>
+      <c r="U102" s="27"/>
+      <c r="V102" s="27"/>
+      <c r="W102" s="27"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="27"/>
+      <c r="AA102" s="27"/>
+      <c r="AB102" s="27"/>
+      <c r="AC102" s="27"/>
+      <c r="AD102" s="27"/>
+      <c r="AE102" s="27"/>
+    </row>
+    <row r="103" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="O103" s="26"/>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="27"/>
+      <c r="R103" s="27"/>
+      <c r="S103" s="27"/>
+      <c r="T103" s="27"/>
+      <c r="U103" s="27"/>
+      <c r="V103" s="27"/>
+      <c r="W103" s="27"/>
+      <c r="X103" s="27"/>
+      <c r="Y103" s="27"/>
+      <c r="Z103" s="27"/>
+      <c r="AA103" s="27"/>
+      <c r="AB103" s="27"/>
+      <c r="AC103" s="27"/>
+      <c r="AD103" s="27"/>
+      <c r="AE103" s="27"/>
+    </row>
+    <row r="104" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="O104" s="26"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="27"/>
+      <c r="R104" s="27"/>
+      <c r="S104" s="27"/>
+      <c r="T104" s="27"/>
+      <c r="U104" s="27"/>
+      <c r="V104" s="27"/>
+      <c r="W104" s="27"/>
+      <c r="X104" s="27"/>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="27"/>
+      <c r="AA104" s="27"/>
+      <c r="AB104" s="27"/>
+      <c r="AC104" s="27"/>
+      <c r="AD104" s="27"/>
+      <c r="AE104" s="27"/>
+    </row>
+    <row r="105" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="O105" s="26"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="27"/>
+      <c r="R105" s="27"/>
+      <c r="S105" s="27"/>
+      <c r="T105" s="27"/>
+      <c r="U105" s="27"/>
+      <c r="V105" s="27"/>
+      <c r="W105" s="27"/>
+      <c r="X105" s="27"/>
+      <c r="Y105" s="27"/>
+      <c r="Z105" s="27"/>
+      <c r="AA105" s="27"/>
+      <c r="AB105" s="27"/>
+      <c r="AC105" s="27"/>
+      <c r="AD105" s="27"/>
+      <c r="AE105" s="27"/>
+    </row>
+    <row r="106" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="27"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="27"/>
+      <c r="AE106" s="27"/>
     </row>
   </sheetData>
   <sortState ref="P22:P33">
     <sortCondition ref="P22"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
     <mergeCell ref="C43:N43"/>
     <mergeCell ref="C47:N47"/>
     <mergeCell ref="C51:N51"/>
     <mergeCell ref="C54:N54"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:M85"/>
-    <mergeCell ref="C36:N36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="C39:N42">
-    <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:N42">
     <cfRule type="iconSet" priority="9">
@@ -5970,7 +7294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:N46">
-    <cfRule type="top10" dxfId="8" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:N46">
     <cfRule type="iconSet" priority="7">
@@ -5982,7 +7306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:N50">
-    <cfRule type="top10" dxfId="7" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:N50">
     <cfRule type="iconSet" priority="5">
@@ -5994,7 +7318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:N10">
-    <cfRule type="top10" dxfId="6" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:N10">
     <cfRule type="iconSet" priority="3">
@@ -6011,7 +7335,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="span" xr2:uid="{17E851C5-6F0F-4C48-AE7F-5E823D993B48}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="span" xr2:uid="{AEC6F95C-EF9C-4EB0-A78B-56AFB56A56C6}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6022,8 +7346,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet2!C46:N46</xm:f>
-              <xm:sqref>O46</xm:sqref>
+              <xm:f>Sheet2!C52:N52</xm:f>
+              <xm:sqref>O52</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="span" xr2:uid="{B5C55E5A-6972-4C30-9E4B-A98016F3EC62}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!C53:N53</xm:f>
+              <xm:sqref>O53</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="span" xr2:uid="{C0155C00-0EAD-4E7B-8572-A2FD0EC10DDC}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!C55:N55</xm:f>
+              <xm:sqref>O55</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6043,7 +7399,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="span" xr2:uid="{C0155C00-0EAD-4E7B-8572-A2FD0EC10DDC}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="span" xr2:uid="{17E851C5-6F0F-4C48-AE7F-5E823D993B48}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6054,40 +7410,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet2!C55:N55</xm:f>
-              <xm:sqref>O55</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="span" xr2:uid="{B5C55E5A-6972-4C30-9E4B-A98016F3EC62}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet2!C53:N53</xm:f>
-              <xm:sqref>O53</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="span" xr2:uid="{AEC6F95C-EF9C-4EB0-A78B-56AFB56A56C6}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet2!C52:N52</xm:f>
-              <xm:sqref>O52</xm:sqref>
+              <xm:f>Sheet2!C46:N46</xm:f>
+              <xm:sqref>O46</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
